--- a/2. Components/2.1. Cloud Component/2.1.2. Autonomous_Datawarehouse/2. autonomous_dw_tech_owner/4. dml/dwh_processes_runtime.xlsx
+++ b/2. Components/2.1. Cloud Component/2.1.2. Autonomous_Datawarehouse/2. autonomous_dw_tech_owner/4. dml/dwh_processes_runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b26be85664094fc3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{5FB67045-F761-4388-A2CF-4539C3101894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE2C745-D214-45FA-BF36-BD8F5DA2BA43}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{5FB67045-F761-4388-A2CF-4539C3101894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E73C8830-791B-40E4-90E9-5B60E84CF3A9}"/>
   <bookViews>
     <workbookView xWindow="-4185" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>run_order</t>
   </si>
   <si>
-    <t>start_time</t>
-  </si>
-  <si>
     <t>start_condition</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Deletes records older than 1 week from DWH_CONNECT_NOTIF table</t>
+  </si>
+  <si>
+    <t>frequency</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,34 +561,34 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="8" t="s">
@@ -609,10 +609,10 @@
         <v>999</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8">
         <v>0</v>
@@ -627,12 +627,12 @@
         <v>2</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -640,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
@@ -653,10 +653,10 @@
         <v>999</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -671,12 +671,12 @@
         <v>2</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8" t="s">
@@ -697,10 +697,10 @@
         <v>999</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
@@ -715,12 +715,12 @@
         <v>2</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8" t="s">
@@ -741,10 +741,10 @@
         <v>999</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
@@ -759,12 +759,12 @@
         <v>2</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -772,10 +772,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8" t="s">
@@ -785,10 +785,10 @@
         <v>999</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -803,12 +803,12 @@
         <v>2</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
